--- a/output/service_servicessystem/target_service_servicessystem.xlsx
+++ b/output/service_servicessystem/target_service_servicessystem.xlsx
@@ -1008,7 +1008,11 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Changing attribute</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>l_customer_registration_service</t>
@@ -1041,7 +1045,11 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Source extract date</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>l_customer_registration_service</t>

--- a/output/service_servicessystem/target_service_servicessystem.xlsx
+++ b/output/service_servicessystem/target_service_servicessystem.xlsx
@@ -773,7 +773,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bk_customer</t>
+          <t>bk_customerid</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bk_service</t>
+          <t>bk_serviceid</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
